--- a/TweetsIndicativoDepresion.xlsx
+++ b/TweetsIndicativoDepresion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="323">
   <si>
     <t>id</t>
   </si>
@@ -943,6 +943,51 @@
   </si>
   <si>
     <t>Eso es la depresión? Ideas de suicidio, de planificar como y donde hacerlo? Eso es la depresión?? Si alguien la ha superado, la ha vencido, escríbanme por dm...quiero saber mas del tema. Ojalá no e deje llevar por esas ideas…</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>09:38:51</t>
+  </si>
+  <si>
+    <t>Soy fuerte, pero a veces eso de serlo cansa. #cansado #sad #auxilio #depresion</t>
+  </si>
+  <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
+    <t>23:27:40</t>
+  </si>
+  <si>
+    <t>Cómo es que hago pa poder salir a flote, porque estoy es pero hundido hundido en esta hpta depresión y ansiedad. No hay cajetilla de cigarrillos que me aguante una noche completa</t>
+  </si>
+  <si>
+    <t>2021-10-07</t>
+  </si>
+  <si>
+    <t>22:11:40</t>
+  </si>
+  <si>
+    <t>Vivir con depresión, ansiedad y alcohólismo es muy agotador. Y la verdad ya estoy cansado. Muy. Muy cansado</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>20:54:14</t>
+  </si>
+  <si>
+    <t>Cuando te digo que sufro de depresión es al menos para que entiendas que ahora no estoy bien ni conmigo peor con otra persona. No estoy para exigencias ni reclamos porque ya tengo bastante con mi mundo loco.</t>
+  </si>
+  <si>
+    <t>2021-09-23</t>
+  </si>
+  <si>
+    <t>00:29:01</t>
+  </si>
+  <si>
+    <t>Soy la única que cuando entro en depresión tiendo a hacer todas mis tareas sin parar</t>
   </si>
 </sst>
 </file>
@@ -1306,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,43 +1611,31 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1.393417835494453E+18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="A11">
+        <v>1.452283449503584E+18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>1.2479796790946409E+18</v>
+        <v>1.393417835494453E+18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1619,16 +1652,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1.4006809194182121E+18</v>
+        <v>1.2479796790946409E+18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1645,16 +1678,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1.38904149997586E+18</v>
+        <v>1.4006809194182121E+18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1671,16 +1704,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>1.4332360746046751E+18</v>
+        <v>1.38904149997586E+18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1697,16 +1730,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>1.2471902842383109E+18</v>
+        <v>1.4332360746046751E+18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1723,16 +1756,16 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1.224401290727477E+18</v>
+        <v>1.2471902842383109E+18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1749,16 +1782,16 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>1.246492799240897E+18</v>
+        <v>1.224401290727477E+18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1775,16 +1808,16 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1.3655137638651661E+18</v>
+        <v>1.246492799240897E+18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1801,16 +1834,16 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>1.3940509685983229E+18</v>
+        <v>1.3655137638651661E+18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1827,16 +1860,16 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>1.241179559321534E+18</v>
+        <v>1.3940509685983229E+18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1853,16 +1886,16 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>1.4328447604321851E+18</v>
+        <v>1.241179559321534E+18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1876,27 +1909,19 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>1.277869403917386E+18</v>
+        <v>1.4328447604321851E+18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1921,16 +1946,16 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1.292904641798316E+18</v>
+        <v>1.277869403917386E+18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1955,16 +1980,16 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>1.2410757755263099E+18</v>
+        <v>1.292904641798316E+18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1989,16 +2014,16 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>1.3824245314915571E+18</v>
+        <v>1.2410757755263099E+18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2023,16 +2048,16 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1.2284688952768179E+18</v>
+        <v>1.3824245314915571E+18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2056,51 +2081,31 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1.2430345712617841E+18</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
+      <c r="A28">
+        <v>1.440911057254486E+18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>1.269640425654178E+18</v>
+        <v>1.2284688952768179E+18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2125,16 +2130,16 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>1.3669971160868539E+18</v>
+        <v>1.2430345712617841E+18</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2159,16 +2164,16 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>1.225600098576556E+18</v>
+        <v>1.269640425654178E+18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2193,16 +2198,16 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>1.280353033147298E+18</v>
+        <v>1.3669971160868539E+18</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2227,16 +2232,16 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>1.2936706015347059E+18</v>
+        <v>1.225600098576556E+18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2261,16 +2266,16 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>1.4526626719380969E+18</v>
+        <v>1.280353033147298E+18</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2295,16 +2300,16 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>1.2431286501380749E+18</v>
+        <v>1.2936706015347059E+18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2329,16 +2334,16 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>1.2674143595605519E+18</v>
+        <v>1.4526626719380969E+18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2352,19 +2357,27 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>1.273235133521449E+18</v>
+        <v>1.2431286501380749E+18</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2378,45 +2391,41 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1.2962703700188611E+18</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="A38">
+        <v>1.4578892345519841E+18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>1.247717480715477E+18</v>
+        <v>1.2674143595605519E+18</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2433,16 +2442,16 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>1.242714551730176E+18</v>
+        <v>1.273235133521449E+18</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2459,16 +2468,16 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>1.3941349054922299E+18</v>
+        <v>1.2962703700188611E+18</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2485,16 +2494,16 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>1.3440890823481221E+18</v>
+        <v>1.247717480715477E+18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2511,16 +2520,16 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>1.28564018962541E+18</v>
+        <v>1.242714551730176E+18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2537,16 +2546,16 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>1.430412228621132E+18</v>
+        <v>1.3941349054922299E+18</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2563,16 +2572,16 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>1.4028600343133591E+18</v>
+        <v>1.3440890823481221E+18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2589,16 +2598,16 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>1.3850417584726139E+18</v>
+        <v>1.28564018962541E+18</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2615,16 +2624,16 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>1.4534540672216351E+18</v>
+        <v>1.430412228621132E+18</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2638,59 +2647,33 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>1.238663280954089E+18</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
+      <c r="A48">
+        <v>1.4463123106293389E+18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" t="s">
+        <v>315</v>
+      </c>
+      <c r="D48" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>1.318373358657044E+18</v>
+        <v>1.4028600343133591E+18</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2704,26 +2687,19 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>1.3266163060120901E+18</v>
+        <v>1.3850417584726139E+18</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>296</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2737,26 +2713,19 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>1.2852796302456709E+18</v>
+        <v>1.4534540672216351E+18</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2780,16 +2749,16 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>1.2607211828165591E+18</v>
+        <v>1.238663280954089E+18</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2813,16 +2782,16 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>1.4056887997625631E+18</v>
+        <v>1.318373358657044E+18</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2846,16 +2815,16 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>1.3352100249526231E+18</v>
+        <v>1.3266163060120901E+18</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2879,16 +2848,16 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>1.4491267799821271E+18</v>
+        <v>1.2852796302456709E+18</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2912,16 +2881,16 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>1.2387133605664031E+18</v>
+        <v>1.2607211828165591E+18</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2945,16 +2914,16 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>1.3028862135069939E+18</v>
+        <v>1.4056887997625631E+18</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2978,16 +2947,16 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>1.3998410606758049E+18</v>
+        <v>1.3352100249526231E+18</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -3011,16 +2980,16 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>1.2305067355945449E+18</v>
+        <v>1.4491267799821271E+18</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -3044,16 +3013,16 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>1.372523194591146E+18</v>
+        <v>1.2387133605664031E+18</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -3077,16 +3046,16 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>1.4349138247302269E+18</v>
+        <v>1.3028862135069939E+18</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -3110,16 +3079,16 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>1.2322868813935821E+18</v>
+        <v>1.3998410606758049E+18</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -3143,16 +3112,16 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>1.246773685815575E+18</v>
+        <v>1.2305067355945449E+18</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -3176,16 +3145,16 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>1.238809539069334E+18</v>
+        <v>1.372523194591146E+18</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -3209,16 +3178,16 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>1.2341973933458309E+18</v>
+        <v>1.4349138247302269E+18</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3242,16 +3211,16 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>1.255376370059956E+18</v>
+        <v>1.2322868813935821E+18</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3275,16 +3244,16 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>1.2392055742330099E+18</v>
+        <v>1.246773685815575E+18</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3308,16 +3277,16 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>1.2425802020955551E+18</v>
+        <v>1.238809539069334E+18</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3341,16 +3310,16 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>1.4467882442224891E+18</v>
+        <v>1.2341973933458309E+18</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3374,16 +3343,16 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>1.364671079596319E+18</v>
+        <v>1.255376370059956E+18</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -3407,16 +3376,16 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>1.3399126655866099E+18</v>
+        <v>1.2392055742330099E+18</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -3440,16 +3409,16 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>1.23455402174414E+18</v>
+        <v>1.2425802020955551E+18</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -3463,19 +3432,26 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>1.3957286283071859E+18</v>
+        <v>1.4467882442224891E+18</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -3489,19 +3465,26 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>1.266032471113687E+18</v>
+        <v>1.364671079596319E+18</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3515,19 +3498,26 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>1.42041705109357E+18</v>
+        <v>1.3399126655866099E+18</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -3541,19 +3531,26 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>1.385405030002475E+18</v>
+        <v>1.23455402174414E+18</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -3570,16 +3567,16 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>1.4336362826142879E+18</v>
+        <v>1.3957286283071859E+18</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -3596,16 +3593,16 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>1.3121385186096289E+18</v>
+        <v>1.266032471113687E+18</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -3619,22 +3616,19 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>1.228703946300105E+18</v>
+        <v>1.42041705109357E+18</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -3648,22 +3642,19 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>1.378327310127006E+18</v>
+        <v>1.385405030002475E+18</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -3677,51 +3668,33 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>1.2415906443778171E+18</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>129</v>
+      <c r="A81">
+        <v>1.444881884329218E+18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" t="s">
+        <v>312</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
+        <v>313</v>
+      </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>1.2455162898771799E+18</v>
+        <v>1.4336362826142879E+18</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -3735,22 +3708,19 @@
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>1.280135103029621E+18</v>
+        <v>1.3121385186096289E+18</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -3770,16 +3740,16 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>1.4712119478614551E+18</v>
+        <v>1.228703946300105E+18</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -3799,16 +3769,16 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>1.299912626051351E+18</v>
+        <v>1.378327310127006E+18</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -3828,16 +3798,16 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>1.278415988191638E+18</v>
+        <v>1.2415906443778171E+18</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -3857,16 +3827,16 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>1.4296829567261199E+18</v>
+        <v>1.2455162898771799E+18</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -3886,16 +3856,16 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>1.2958108812223201E+18</v>
+        <v>1.280135103029621E+18</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -3915,16 +3885,16 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>1.3679107854402189E+18</v>
+        <v>1.4712119478614551E+18</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -3944,16 +3914,16 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>1.2455568040478231E+18</v>
+        <v>1.299912626051351E+18</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -3973,16 +3943,16 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>1.2302195272223869E+18</v>
+        <v>1.278415988191638E+18</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -3996,19 +3966,22 @@
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>1.250504615503766E+18</v>
+        <v>1.4296829567261199E+18</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>305</v>
+        <v>234</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -4022,19 +3995,22 @@
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>1.2755988694731781E+18</v>
+        <v>1.2958108812223201E+18</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -4048,255 +4024,257 @@
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1.2416817290285299E+18</v>
-      </c>
-      <c r="B94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" t="s">
-        <v>73</v>
-      </c>
-      <c r="D94" t="s">
-        <v>74</v>
-      </c>
+      <c r="A94" s="2">
+        <v>1.3679107854402189E+18</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1.2745475522564831E+18</v>
-      </c>
-      <c r="B95" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" t="s">
-        <v>77</v>
-      </c>
+      <c r="A95" s="2">
+        <v>1.2455568040478231E+18</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1.4118998347983869E+18</v>
-      </c>
-      <c r="B96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" t="s">
-        <v>81</v>
-      </c>
-      <c r="D96" t="s">
-        <v>82</v>
-      </c>
+      <c r="A96" s="2">
+        <v>1.2302195272223869E+18</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1.32376950536192E+18</v>
-      </c>
-      <c r="B97" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" t="s">
-        <v>84</v>
-      </c>
-      <c r="D97" t="s">
-        <v>85</v>
-      </c>
+      <c r="A97" s="2">
+        <v>1.250504615503766E+18</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1.2412605509082481E+18</v>
-      </c>
-      <c r="B98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" t="s">
-        <v>91</v>
-      </c>
+      <c r="A98" s="2">
+        <v>1.2755988694731781E+18</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1.3066969404622359E+18</v>
+        <v>1.2416817290285299E+18</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D99" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
+        <v>1.2745475522564831E+18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1.4118998347983869E+18</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1.32376950536192E+18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1.2412605509082481E+18</v>
+      </c>
+      <c r="B103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1.3066969404622359E+18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" t="s">
+        <v>93</v>
+      </c>
+      <c r="D104" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>1.2655027542163049E+18</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B105" t="s">
         <v>95</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C105" t="s">
         <v>96</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D105" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
         <v>1.362579504565281E+18</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-    </row>
-    <row r="102" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>1.3448523507003149E+18</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>1.346076964545847E+18</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>1.3568057176222149E+18</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>1.363752320983532E+18</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -4313,11 +4291,19 @@
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+    <row r="107" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>1.3448523507003149E+18</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -4335,10 +4321,18 @@
       <c r="S107" s="2"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="A108" s="2">
+        <v>1.346076964545847E+18</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -4355,6 +4349,127 @@
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
     </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>1.3568057176222149E+18</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>1.363752320983532E+18</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
